--- a/biology/Médecine/Artère_ophtalmique/Artère_ophtalmique.xlsx
+++ b/biology/Médecine/Artère_ophtalmique/Artère_ophtalmique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_ophtalmique</t>
+          <t>Artère_ophtalmique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’artère ophtalmique est une branche de l'artère carotide interne par laquelle sont irrigués l'œil et d'autres structures dans l'orbite (muscles, ligaments, etc.). Elle entre dans l'orbite par le canal optique, accompagnant le nerf optique. Elle se positionne au départ en dessous du nerf optique, puis va le croiser par-dessus en passant en latéral (extérieur) pour rejoindre la partie médiale de l'orbite (intérieure).
 Les branches de l'artère ophtalmique sont souvent subdivisées en groupe orbital et groupe oculaire.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_ophtalmique</t>
+          <t>Artère_ophtalmique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Groupe orbital</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le groupe orbital, les vaisseaux de distribution de l'orbite et les pièces environnantes, inclut :
 artère lacrymale ;
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_ophtalmique</t>
+          <t>Artère_ophtalmique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Groupe oculaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le groupe oculaire, les vaisseaux de distribution à l'œil et ses muscles, inclut :
 longue artère ciliaire postérieure ;
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_ophtalmique</t>
+          <t>Artère_ophtalmique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>Vascularisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Branches de l'approvisionnement ophtalmique d'artère :
 ventre frontal du muscle d'occipitofrontalis ;
